--- a/update_instances/ig/StructureDefinition-prescription.xlsx
+++ b/update_instances/ig/StructureDefinition-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t>Time period plan covers</t>
+    <t>Time period the prescription covers</t>
   </si>
   <si>
     <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
@@ -802,6 +802,97 @@
   </si>
   <si>
     <t>GOL-7 / GOL-8</t>
+  </si>
+  <si>
+    <t>CarePlan.period.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CarePlan.period.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date and time of prescription start</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>CarePlan.period.end</t>
+  </si>
+  <si>
+    <t>Date and time of prescription end</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The end value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
   </si>
   <si>
     <t>CarePlan.created</t>
@@ -811,10 +902,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>The date on which the registration was first made</t>
   </si>
   <si>
@@ -996,29 +1083,7 @@
     <t>CarePlan.activity.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>CarePlan.activity.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>CarePlan.activity.modifierExtension</t>
@@ -1441,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1478,7 +1543,7 @@
     <col min="26" max="26" width="52.58984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.80859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4136,13 +4201,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -4248,32 +4313,32 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4324,7 +4389,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4333,19 +4398,19 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4353,21 +4418,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4376,19 +4441,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4426,40 +4491,40 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4467,10 +4532,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4478,10 +4543,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4490,19 +4555,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4552,16 +4617,16 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4573,18 +4638,18 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4592,10 +4657,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4604,25 +4669,27 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
         <v>274</v>
       </c>
+      <c r="N28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="R28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4666,53 +4733,53 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>77</v>
@@ -4721,20 +4788,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4758,13 +4821,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4782,13 +4845,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -4797,24 +4860,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4822,35 +4885,33 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4898,13 +4959,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4913,10 +4974,10 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4927,10 +4988,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4953,20 +5014,18 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5014,7 +5073,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5035,18 +5094,18 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5054,13 +5113,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5069,17 +5128,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5128,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5143,13 +5202,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5157,10 +5216,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5171,7 +5230,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5180,19 +5239,23 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5216,13 +5279,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5240,31 +5303,31 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5276,17 +5339,17 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5295,18 +5358,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5354,7 +5419,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5366,16 +5431,16 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5383,14 +5448,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5403,25 +5468,25 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5482,7 +5547,7 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5491,18 +5556,18 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5510,13 +5575,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>77</v>
@@ -5525,19 +5590,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5562,31 +5625,31 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5601,13 +5664,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5615,10 +5678,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5629,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5641,20 +5704,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5702,19 +5761,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5723,29 +5782,29 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5757,20 +5816,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5818,28 +5875,28 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5847,14 +5904,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5867,23 +5924,25 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5932,7 +5991,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5944,23 +6003,485 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>342</v>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN39">
+  <autoFilter ref="A1:AN43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5970,7 +6491,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
